--- a/excel/mag_average_neighbor_degree.xlsx
+++ b/excel/mag_average_neighbor_degree.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B239"/>
+  <dimension ref="A1:B229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2658,106 +2658,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Teaching Mathematics and its Applications</t>
-        </is>
-      </c>
-      <c r="B230" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>FME Transactions</t>
-        </is>
-      </c>
-      <c r="B231" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>IEEE Transactions on Parallel and Distributed Systems</t>
-        </is>
-      </c>
-      <c r="B232" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>IEEE Parallel and Distributed Technology</t>
-        </is>
-      </c>
-      <c r="B233" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>Proceedings of the Euromicro Conference on Software Maintenance and Reengineering, CSMR</t>
-        </is>
-      </c>
-      <c r="B234" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>Journal of Advanced Transportation</t>
-        </is>
-      </c>
-      <c r="B235" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>Promet - Traffic - Traffico</t>
-        </is>
-      </c>
-      <c r="B236" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>Information Development</t>
-        </is>
-      </c>
-      <c r="B237" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>Safety Science</t>
-        </is>
-      </c>
-      <c r="B238" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>Actual Problems of Economics</t>
-        </is>
-      </c>
-      <c r="B239" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
